--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2245.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2245.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.240123083538149</v>
+        <v>1.124112129211426</v>
       </c>
       <c r="B1">
-        <v>2.451627773415127</v>
+        <v>2.503989458084106</v>
       </c>
       <c r="C1">
-        <v>7.59333888319601</v>
+        <v>6.106705188751221</v>
       </c>
       <c r="D1">
-        <v>2.283511646491506</v>
+        <v>2.164223432540894</v>
       </c>
       <c r="E1">
-        <v>1.142326187774495</v>
+        <v>1.246336460113525</v>
       </c>
     </row>
   </sheetData>
